--- a/Assets/Resources/PaperMissionTracker.xlsx
+++ b/Assets/Resources/PaperMissionTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorcolombo/Documents/PKBACK/GitHub/cuberover-simulator/Assets/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1762BFB4-CF0F-DB42-AC24-9CE9C10EA838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3727ED9-B8CC-284D-A3E3-2D21023B07D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20660" xr2:uid="{9DC019AC-4F4E-3F4C-BAEF-F7D1E1ACF78C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20620" xr2:uid="{9DC019AC-4F4E-3F4C-BAEF-F7D1E1ACF78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E5BD28-A13F-6248-8C78-F6F357A35069}">
   <dimension ref="A1:AG892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Assets/Resources/PaperMissionTracker.xlsx
+++ b/Assets/Resources/PaperMissionTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorcolombo/Documents/PKBACK/GitHub/cuberover-simulator/Assets/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3727ED9-B8CC-284D-A3E3-2D21023B07D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF99951-59EF-DE4C-957C-28DF14848249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20620" xr2:uid="{9DC019AC-4F4E-3F4C-BAEF-F7D1E1ACF78C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20600" xr2:uid="{9DC019AC-4F4E-3F4C-BAEF-F7D1E1ACF78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
   <dimension ref="A1:AG892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -567,6 +567,7 @@
     <col min="15" max="15" width="0.83203125" style="6" customWidth="1"/>
     <col min="21" max="21" width="0.83203125" style="6" customWidth="1"/>
     <col min="27" max="27" width="0.83203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -2676,10 +2677,7 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="X23" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="X23" s="7"/>
       <c r="Y23" s="7" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -6458,9 +6456,9 @@
         <f t="array" aca="1" ref="AC61" ca="1">IFERROR(INDIRECT(_xlfn.SWITCH(MOD((ROW(AC61)-ROW(AC$5)),3),0,CHAR(COLUMN(K61)+64),1,CHAR(COLUMN(Q61)+64),2,CHAR(COLUMN(W61)+64))&amp;(ROW(K$5)+INT((ROW(AC61)-ROW(AC$5))/3))),"")</f>
         <v/>
       </c>
-      <c r="AD61" s="2" t="str" cm="1">
+      <c r="AD61" s="2" cm="1">
         <f t="array" aca="1" ref="AD61" ca="1">IFERROR(ROUND(INDIRECT(_xlfn.SWITCH(MOD((ROW(AD61)-ROW(AD$5)),3),0,CHAR(COLUMN(L61)+64),1,CHAR(COLUMN(R61)+64),2,CHAR(COLUMN(X61)+64))&amp;(ROW(L$5)+INT((ROW(AD61)-ROW(AD$5))/3))),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2" t="str" cm="1">
